--- a/DataImport2023/Final2023/Socios/20_336_SJR.xlsx
+++ b/DataImport2023/Final2023/Socios/20_336_SJR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyectos\OSMOSYS_2023\DataImport2023\Final2023\Socios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE4A7D-F246-42CD-92C2-FE4C2FCDF830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709EF5CE-D973-470A-9BFB-797DC4194520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{334A0306-1115-4D76-921D-02A7AD8C5BFD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Indicador General</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Traslado, alojamiento y alimentación a 600 personas de forma temporal al albergue Miraflores para poder proceder con seguridad y dignidad en sus entrevistas con los países de reasentamiento</t>
+  </si>
+  <si>
+    <t>10Z03 No. de personas por las cuales ACNUR trabaja identificadas para reasentamiento que reciben asistencia para el proceso</t>
   </si>
 </sst>
 </file>
@@ -421,15 +424,42 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -444,33 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,805 +814,805 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="16">
         <v>1400</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="12">
         <v>125</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="12">
         <v>125</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="12">
         <v>125</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="12">
         <v>125</v>
       </c>
-      <c r="H7" s="19">
-        <f t="shared" ref="H7:H56" si="0">SUM(D7:G7)</f>
+      <c r="H7" s="12">
+        <f t="shared" ref="H7:H9" si="0">SUM(D7:G7)</f>
         <v>500</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="12">
         <v>75</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="12">
         <v>75</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="12">
         <v>75</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="12">
         <v>75</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="12">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12">
         <v>125</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="12">
         <v>125</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="12">
         <v>175</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="12">
         <v>175</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="20"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <f t="shared" ref="H7:H56" si="1">SUM(D10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="20"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="20"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="20"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="20"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="20"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="20"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="20"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="20"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="20"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="20"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="20"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="20"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="20"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="20"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="20"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="20"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="20"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="20"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="20"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="20"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="20"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="20"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="20"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="20"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="20"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="20"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="20"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="20"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="20"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="20"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="20"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="20"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="20"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="20"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="20"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="20"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="20"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="20"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="20"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="20"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="20"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="20"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="20"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="20"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="20"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="20"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
